--- a/schnitzcell_fullAnalysis_general3colors.xlsx
+++ b/schnitzcell_fullAnalysis_general3colors.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="130">
   <si>
     <t>folder name</t>
   </si>
@@ -288,9 +288,6 @@
     <t>minDepth</t>
   </si>
   <si>
-    <t>cutCellsWidth</t>
-  </si>
-  <si>
     <t>[0 500]</t>
   </si>
   <si>
@@ -324,9 +321,6 @@
     <t>none</t>
   </si>
   <si>
-    <t>load 'D:\TrySchnitz\fluo_correction_images\Correction_10Mhz_110801_50ms.mat' flatfield shading replace</t>
-  </si>
-  <si>
     <t>load 'D:\TrySchnitz\fluo_correction_images\PSF_090402_centered.mat' PSF</t>
   </si>
   <si>
@@ -366,9 +360,6 @@
     <t>DJK_makeMovie (p, 'tree', 'cellno', 'stabilize', 1,'problemCells',problems);</t>
   </si>
   <si>
-    <t>load 'D:\TrySchnitz\fluo_correction_images\Correction_10Mhz_110801_100ms.mat' flatfield shading replace</t>
-  </si>
-  <si>
     <t>[25 220]</t>
   </si>
   <si>
@@ -409,6 +400,12 @@
   </si>
   <si>
     <t>DJK_plot_scatterColor(p2, s_rm_fitTime_cycle, 'av_mu_fitNew', 'av_C6_mean', 'av_time', 'xlim', [0 200], 'ylim', [0 3.0], 'selectionName', name_rm_fitTime_cycle, 'plotRegression', 1, 'onScreen', 0);</t>
+  </si>
+  <si>
+    <t>neckDepth</t>
+  </si>
+  <si>
+    <t>load 'D:\TrySchnitz\fluo_correction_images\Correction_10Mhz_111206_50ms.mat' flatfield shading replace</t>
   </si>
 </sst>
 </file>
@@ -814,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -836,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -845,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="5"/>
       <c r="E3" s="5"/>
@@ -855,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -865,39 +862,39 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -932,7 +929,7 @@
         <v>80</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C13" s="5"/>
     </row>
@@ -987,10 +984,10 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="B20" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1002,7 +999,7 @@
         <v>47</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1010,7 +1007,7 @@
         <v>49</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1018,7 +1015,7 @@
         <v>50</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1026,7 +1023,7 @@
         <v>51</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1102,32 +1099,32 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="str">
-        <f>CONCATENATE("PN_segmoviephase_3colors(p,'segRange', ", B$5, ",'slices', ", B$13, ",'rangeFiltSize', ", B$14, ",'maskMargin', ", B$15, ",'LoG_Smoothing', ", B$16, ",'minCellArea', ", B$17, ",'GaussianFilter', ", B$18, ",'minDepth', ", B$19, ",'cutCellsWidth', ", B$20, ");")</f>
-        <v>PN_segmoviephase_3colors(p,'segRange', [1:349],'slices', [1 2],'rangeFiltSize', 35,'maskMargin', 20,'LoG_Smoothing', 2,'minCellArea', 250,'GaussianFilter', 5,'minDepth', 5,'cutCellsWidth', 4);</v>
+        <f>CONCATENATE("PN_segmoviephase_3colors(p,'segRange', ", B$5, ",'slices', ", B$13, ",'rangeFiltSize', ", B$14, ",'maskMargin', ", B$15, ",'LoG_Smoothing', ", B$16, ",'minCellArea', ", B$17, ",'GaussianFilter', ", B$18, ",'minDepth', ", B$19, ",'neckDepth', ", B$20, ");")</f>
+        <v>PN_segmoviephase_3colors(p,'segRange', [1:349],'slices', [1 2],'rangeFiltSize', 35,'maskMargin', 20,'LoG_Smoothing', 2,'minCellArea', 250,'GaussianFilter', 5,'minDepth', 5,'neckDepth', 2);</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="str">
-        <f>CONCATENATE("PN_copySegFiles(p,'segRange', ", B$5, ",'slices', ", B$13, ",'rangeFiltSize', ", B$14, ",'maskMargin', ", B$15, ",'LoG_Smoothing', ", B$16, ",'minCellArea', ", B$17, ",'GaussianFilter', ", B$18, ",'minDepth', ", B$19, ",'cutCellsWidth', ", B$20, ");")</f>
-        <v>PN_copySegFiles(p,'segRange', [1:349],'slices', [1 2],'rangeFiltSize', 35,'maskMargin', 20,'LoG_Smoothing', 2,'minCellArea', 250,'GaussianFilter', 5,'minDepth', 5,'cutCellsWidth', 4);</v>
+        <f>CONCATENATE("PN_copySegFiles(p,'segRange', ", B$5, ",'slices', ", B$13, ",'rangeFiltSize', ", B$14, ",'maskMargin', ", B$15, ",'LoG_Smoothing', ", B$16, ",'minCellArea', ", B$17, ",'GaussianFilter', ", B$18, ",'minDepth', ", B$19, ",'neckDepth', ", B$20, ");")</f>
+        <v>PN_copySegFiles(p,'segRange', [1:349],'slices', [1 2],'rangeFiltSize', 35,'maskMargin', 20,'LoG_Smoothing', 2,'minCellArea', 250,'GaussianFilter', 5,'minDepth', 5,'neckDepth', 2);</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="str">
-        <f>CONCATENATE("PN_segmoviephase_3colors(p,'segRange', ", B$5, ",'slices', ", B$13, ",'rangeFiltSize', ", B$14, ",'maskMargin', ", B$15, ",'LoG_Smoothing', 2.5,'minCellArea', ", B$17, ",'GaussianFilter', ", B$18, ",'minDepth', ", B$19, ",'cutCellsWidth', ", B$20, ",'medium','rich');")</f>
-        <v>PN_segmoviephase_3colors(p,'segRange', [1:349],'slices', [1 2],'rangeFiltSize', 35,'maskMargin', 20,'LoG_Smoothing', 2.5,'minCellArea', 250,'GaussianFilter', 5,'minDepth', 5,'cutCellsWidth', 4,'medium','rich');</v>
+        <f>CONCATENATE("PN_segmoviephase_3colors(p,'segRange', ", B$5, ",'slices', ", B$13, ",'rangeFiltSize', ", B$14, ",'maskMargin', ", B$15, ",'LoG_Smoothing', 2.5,'minCellArea', ", B$17, ",'GaussianFilter', ", B$18, ",'minDepth', ", B$19, ",'neckDepth', ", B$20, ",'medium','rich');")</f>
+        <v>PN_segmoviephase_3colors(p,'segRange', [1:349],'slices', [1 2],'rangeFiltSize', 35,'maskMargin', 20,'LoG_Smoothing', 2.5,'minCellArea', 250,'GaussianFilter', 5,'minDepth', 5,'neckDepth', 2,'medium','rich');</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="str">
-        <f>CONCATENATE("PN_copySegFiles(p,'segRange', ", B$5, ",'slices', ", B$13, ",'rangeFiltSize', ", B$14, ",'maskMargin', ", B$15, ",'LoG_Smoothing', 2.5,'minCellArea', ", B$17, ",'GaussianFilter', ", B$18, ",'minDepth', ", B$19, ",'cutCellsWidth', ", B$20, ");")</f>
-        <v>PN_copySegFiles(p,'segRange', [1:349],'slices', [1 2],'rangeFiltSize', 35,'maskMargin', 20,'LoG_Smoothing', 2.5,'minCellArea', 250,'GaussianFilter', 5,'minDepth', 5,'cutCellsWidth', 4);</v>
+        <f>CONCATENATE("PN_copySegFiles(p,'segRange', ", B$5, ",'slices', ", B$13, ",'rangeFiltSize', ", B$14, ",'maskMargin', ", B$15, ",'LoG_Smoothing', 2.5,'minCellArea', ", B$17, ",'GaussianFilter', ", B$18, ",'minDepth', ", B$19, ",'neckDepth', ", B$20, ");")</f>
+        <v>PN_copySegFiles(p,'segRange', [1:349],'slices', [1 2],'rangeFiltSize', 35,'maskMargin', 20,'LoG_Smoothing', 2.5,'minCellArea', 250,'GaussianFilter', 5,'minDepth', 5,'neckDepth', 2);</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1182,7 +1179,7 @@
         <v>problems = DJK_analyzeTracking(p,'manualRange', , 'pixelsMoveDef', 15, 'pixelsLenDef', [-4 10]);</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1198,7 +1195,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1215,7 +1212,7 @@
         <v>NW_initializeFluorData(p,'manualRange', [1:349]);</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1227,7 +1224,7 @@
         <v>optimalShift = DJK_getFluorShift_anycolor(p,'manualRange', [1:349],'fluorcolor','fluor1');</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C62" s="4" t="str">
         <f>CONCATENATE("optimalShift = DJK_getFluorShift_anycolor(p,'manualRange', ", D$5, ",'fluorcolor','fluor1','maxShift',20);")</f>
@@ -1236,12 +1233,12 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="4" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1258,7 +1255,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1273,12 +1270,12 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="4" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1303,7 +1300,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1318,12 +1315,12 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1348,7 +1345,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B85" s="17"/>
     </row>
@@ -1360,7 +1357,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1450,31 +1447,31 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B101" s="4"/>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B102" s="4"/>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B103" s="4"/>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B104" s="4"/>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B105" s="4"/>
     </row>
@@ -1483,25 +1480,25 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B107" s="4"/>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B108" s="4"/>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B109" s="4"/>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B110" s="4"/>
     </row>
@@ -1613,7 +1610,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B129" s="4"/>
     </row>
@@ -1699,7 +1696,7 @@
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="147" spans="1:1">
